--- a/TP2/Project Outputs for PCB_Project_4/BOM/Bill of Materials-PCB_Project_4.xlsx
+++ b/TP2/Project Outputs for PCB_Project_4/BOM/Bill of Materials-PCB_Project_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35595" windowHeight="16110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26895" windowHeight="12405"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-PCB_Project_4" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="98">
   <si>
     <t>Quantity</t>
   </si>
@@ -57,7 +57,7 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>RAD-0.3</t>
+    <t>CAPC1608N</t>
   </si>
   <si>
     <t>Capacitor</t>
@@ -81,6 +81,9 @@
     <t>10uF</t>
   </si>
   <si>
+    <t>CAPC2012N</t>
+  </si>
+  <si>
     <t>TDK</t>
   </si>
   <si>
@@ -111,19 +114,28 @@
     <t>Green LED</t>
   </si>
   <si>
-    <t>LED-0</t>
+    <t>LED 0805</t>
   </si>
   <si>
     <t>Typical INFRARED GaAs LED</t>
   </si>
   <si>
+    <t>KING BRIGHT</t>
+  </si>
+  <si>
+    <t>KPT-2012SGC</t>
+  </si>
+  <si>
+    <t>2099239</t>
+  </si>
+  <si>
     <t>D2, D3</t>
   </si>
   <si>
     <t>GF1A</t>
   </si>
   <si>
-    <t>SMC</t>
+    <t>214AC_21</t>
   </si>
   <si>
     <t>Default Diode</t>
@@ -144,7 +156,7 @@
     <t>600r</t>
   </si>
   <si>
-    <t>0402-A</t>
+    <t>INDC1608AN</t>
   </si>
   <si>
     <t>Inductor</t>
@@ -165,13 +177,16 @@
     <t>Program / Debug</t>
   </si>
   <si>
-    <t>Molex</t>
-  </si>
-  <si>
-    <t>53398-0671</t>
-  </si>
-  <si>
-    <t>1125368</t>
+    <t>RJ12_90</t>
+  </si>
+  <si>
+    <t>Tyco</t>
+  </si>
+  <si>
+    <t>1-215876-3</t>
+  </si>
+  <si>
+    <t>1773039</t>
   </si>
   <si>
     <t>P1</t>
@@ -180,7 +195,7 @@
     <t>12V Main</t>
   </si>
   <si>
-    <t>HDR1X2</t>
+    <t>PHOENIX_1985195</t>
   </si>
   <si>
     <t>Header, 2-Pin</t>
@@ -207,7 +222,7 @@
     <t>1K</t>
   </si>
   <si>
-    <t>VR5</t>
+    <t>PDB181-K415K-102A2</t>
   </si>
   <si>
     <t>Potentiometer</t>
@@ -216,9 +231,6 @@
     <t>BOURNS</t>
   </si>
   <si>
-    <t>PDB181-K415K-102A2</t>
-  </si>
-  <si>
     <t>1823540</t>
   </si>
   <si>
@@ -228,7 +240,7 @@
     <t>330r</t>
   </si>
   <si>
-    <t>AXIAL-0.3</t>
+    <t>RESC1608N</t>
   </si>
   <si>
     <t>Resistor</t>
@@ -255,6 +267,9 @@
     <t>PIC32MX764F128H-I/PT</t>
   </si>
   <si>
+    <t>QFP50P1200X1200X120-64</t>
+  </si>
+  <si>
     <t>Microchip</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>AP1117</t>
   </si>
   <si>
+    <t>TD03B_N</t>
+  </si>
+  <si>
     <t>DIODES INC</t>
   </si>
   <si>
@@ -282,7 +300,7 @@
     <t>8MHz</t>
   </si>
   <si>
-    <t>R38</t>
+    <t>HC49/4H SMX Crystal</t>
   </si>
   <si>
     <t>Crystal Oscillator</t>
@@ -760,25 +778,25 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -786,10 +804,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -810,7 +828,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -818,28 +836,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>14</v>
@@ -850,28 +868,28 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>14</v>
@@ -882,28 +900,28 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>14</v>
@@ -914,28 +932,28 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>14</v>
@@ -946,28 +964,28 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>14</v>
@@ -978,28 +996,28 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>14</v>
@@ -1010,28 +1028,28 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>14</v>
@@ -1042,16 +1060,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>14</v>
@@ -1066,7 +1084,7 @@
         <v>14</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1074,16 +1092,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>14</v>
@@ -1098,7 +1116,7 @@
         <v>14</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1106,31 +1124,31 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1138,28 +1156,28 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>14</v>
@@ -1170,28 +1188,28 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>14</v>
@@ -1202,28 +1220,28 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>14</v>
